--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35906A23-7253-4AD5-8B4F-13989A6A556B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BENH" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,66 +654,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3AB4CA-2AD8-4007-9A52-81245E6780D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +756,20 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +797,20 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +838,20 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,8 +863,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +896,20 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +937,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,22 +978,34 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -963,8 +1019,20 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,8 +1041,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -985,25 +1057,37 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,25 +1098,37 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1140,12 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,59 +1162,83 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1131,8 +1255,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1143,25 +1279,37 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1189,8 +1337,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1218,8 +1378,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1230,25 +1402,37 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1259,25 +1443,37 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1305,8 +1501,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1334,8 +1542,20 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1363,8 +1583,20 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1392,8 +1624,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1410,19 +1654,31 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1433,25 +1689,37 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1479,8 +1747,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1491,59 +1771,83 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1555,8 +1859,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1568,8 +1876,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1597,8 +1909,20 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,13 +1950,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1643,20 +1979,32 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1684,8 +2032,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1713,13 +2073,25 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1742,8 +2114,20 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,8 +2155,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1800,37 +2196,61 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1858,8 +2278,20 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1887,8 +2319,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1916,8 +2360,20 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1945,13 +2401,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1966,16 +2434,28 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1987,8 +2467,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,8 +2484,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2012,54 +2500,78 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2087,37 +2599,61 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2145,37 +2681,61 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2203,8 +2763,20 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2232,8 +2804,20 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2261,37 +2845,61 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +2911,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2332,8 +2944,20 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2361,8 +2985,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2390,8 +3026,20 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2419,37 +3067,61 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2477,8 +3149,20 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2506,8 +3190,20 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2535,37 +3231,61 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2593,42 +3313,66 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2639,25 +3383,37 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2669,13 +3425,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2698,8 +3458,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2727,8 +3499,20 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2756,8 +3540,20 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2785,8 +3581,20 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2814,8 +3622,20 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2843,13 +3663,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2858,22 +3690,34 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2885,8 +3729,12 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2914,8 +3762,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2943,8 +3803,20 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2972,26 +3844,38 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3001,8 +3885,20 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,8 +3910,12 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3043,8 +3943,20 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3072,8 +3984,20 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,8 +4025,20 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3130,37 +4066,61 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3188,8 +4148,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3215,6 +4187,18 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,78 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1010,29 +1056,35 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1057,14 +1111,14 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1075,19 +1129,25 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>-300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,14 +1158,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1116,19 +1176,25 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1174,19 +1242,25 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,55 +1270,61 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1267,8 +1347,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1279,14 +1365,14 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1297,19 +1383,25 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,22 +1409,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1488,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,17 +1503,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1420,19 +1524,25 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,17 +1550,17 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1461,19 +1571,25 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1666,19 +1806,25 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1686,17 +1832,17 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1707,19 +1853,25 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1911,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1768,17 +1926,17 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1789,65 +1947,77 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1921,8 +2095,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,20 +2142,26 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -1991,11 +2177,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2003,8 +2189,14 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,20 +2283,26 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2424,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2234,23 +2456,29 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3">
-        <v>200</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,20 +2659,26 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2446,16 +2698,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,26 +2748,28 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2518,19 +2780,25 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,19 +2806,19 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2559,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -2570,8 +2838,14 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,19 +2885,25 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2632,28 +2912,34 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2719,23 +3011,29 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3">
-        <v>300</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,19 +3167,25 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
-        <v>100</v>
-      </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2878,28 +3194,34 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,16 +3421,22 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="F72" s="3">
         <v>-500</v>
@@ -3097,10 +3445,10 @@
         <v>-500</v>
       </c>
       <c r="H72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J72" s="3">
         <v>-400</v>
@@ -3109,19 +3457,25 @@
         <v>-400</v>
       </c>
       <c r="L72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,19 +3609,25 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3264,28 +3636,34 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3703,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,17 +3770,17 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3401,19 +3791,25 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,20 +4103,26 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3702,22 +4136,28 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3865,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3874,14 +4334,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -3897,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,8 +1085,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1071,11 +1094,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1117,11 +1144,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1135,19 +1162,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1164,11 +1194,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1182,19 +1212,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1248,19 +1282,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,17 +1313,17 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1295,19 +1332,22 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,17 +1357,17 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1371,11 +1414,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1389,19 +1432,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,11 +1455,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1472,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,20 +1555,20 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1530,19 +1582,22 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,20 +1605,20 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1577,19 +1632,22 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1812,19 +1882,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,20 +1905,20 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1859,19 +1932,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,20 +2005,20 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1953,71 +2032,77 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2160,11 +2253,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2301,11 +2403,11 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2462,14 +2573,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2704,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,17 +2893,17 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2786,19 +2917,22 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,7 +2946,7 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2821,7 +2955,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2833,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,13 +3040,13 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2918,7 +3058,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2927,19 +3067,22 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3017,14 +3163,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,13 +3340,13 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3200,7 +3358,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -3209,19 +3367,22 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3439,7 +3613,7 @@
         <v>-800</v>
       </c>
       <c r="F72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="G72" s="3">
         <v>-500</v>
@@ -3451,7 +3625,7 @@
         <v>-500</v>
       </c>
       <c r="J72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K72" s="3">
         <v>-400</v>
@@ -3463,19 +3637,22 @@
         <v>-400</v>
       </c>
       <c r="N72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-700</v>
       </c>
       <c r="Q72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,13 +3810,13 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -3642,7 +3828,7 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3651,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-600</v>
       </c>
       <c r="P76" s="3">
         <v>-600</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,20 +3965,20 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3797,19 +3992,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,14 +4335,14 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -4142,11 +4359,11 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,11 +4555,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4340,11 +4570,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,23 +4813,26 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4594,20 +4840,20 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,58 +1098,70 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1147,14 +1200,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1165,19 +1218,25 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1197,14 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1215,19 +1274,25 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,19 +1352,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,64 +1389,70 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1396,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1417,14 +1502,14 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1435,19 +1520,25 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,14 +1549,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1475,11 +1566,11 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1558,23 +1661,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1585,19 +1688,25 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1608,23 +1717,23 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1635,19 +1744,25 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1885,19 +2024,25 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1908,23 +2053,23 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1935,19 +2080,25 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,23 +2165,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2035,74 +2192,86 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2364,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2256,14 +2441,14 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2279,11 +2464,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2406,14 +2609,14 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2644,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2576,23 +2797,29 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3">
-        <v>200</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2806,14 +3057,14 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2833,16 +3084,22 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2896,20 +3157,20 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2920,19 +3181,25 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2949,19 +3216,19 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2970,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -2981,8 +3248,14 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,8 +3304,14 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,16 +3322,16 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3061,28 +3340,34 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3166,23 +3457,29 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3">
-        <v>300</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+      <c r="T62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3640,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3343,16 +3658,16 @@
         <v>500</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3361,28 +3676,34 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3616,10 +3963,10 @@
         <v>-800</v>
       </c>
       <c r="G72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="H72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
@@ -3628,10 +3975,10 @@
         <v>-500</v>
       </c>
       <c r="K72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M72" s="3">
         <v>-400</v>
@@ -3640,19 +3987,25 @@
         <v>-400</v>
       </c>
       <c r="O72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +4166,14 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3810,19 +4181,19 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -3831,28 +4202,34 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-600</v>
       </c>
       <c r="R76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3968,23 +4357,23 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3995,19 +4384,25 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4335,20 +4768,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4362,22 +4795,28 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,26 +4999,32 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4573,14 +5032,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1153,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1139,8 +1162,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1148,11 +1171,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1206,11 +1233,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1224,19 +1251,22 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>-300</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1262,11 +1292,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1280,19 +1310,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,19 +1392,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,17 +1432,17 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1414,19 +1451,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1451,11 +1491,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1508,11 +1551,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1526,19 +1569,22 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1572,8 +1618,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1667,20 +1719,20 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1694,19 +1746,22 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1723,20 +1778,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1750,19 +1805,22 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2030,19 +2100,22 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2059,20 +2132,20 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2086,19 +2159,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2171,20 +2250,20 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2198,80 +2277,86 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,11 +2540,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2470,8 +2563,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2615,11 +2717,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2803,14 +2914,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3063,11 +3189,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3090,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,17 +3294,17 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3187,19 +3318,22 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3222,7 +3356,7 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3231,7 +3365,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3243,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,13 +3468,13 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3346,7 +3486,7 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -3355,19 +3495,22 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3463,14 +3609,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3664,13 +3822,13 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3682,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3691,19 +3849,22 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3969,7 +4143,7 @@
         <v>-800</v>
       </c>
       <c r="I72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="J72" s="3">
         <v>-500</v>
@@ -3981,7 +4155,7 @@
         <v>-500</v>
       </c>
       <c r="M72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N72" s="3">
         <v>-400</v>
@@ -3993,19 +4167,22 @@
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-700</v>
       </c>
       <c r="T72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,22 +4367,22 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
       </c>
       <c r="H76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -4208,7 +4394,7 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -4217,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-600</v>
       </c>
       <c r="S76" s="3">
         <v>-600</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4363,20 +4558,20 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4390,19 +4585,22 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,23 +4985,23 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4801,11 +5018,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,29 +5232,32 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5038,11 +5268,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,32 +5550,35 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5340,20 +5586,20 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1179,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1165,8 +1188,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1174,11 +1197,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1236,11 +1263,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1254,19 +1281,22 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-300</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1295,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1313,19 +1343,22 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,19 +1429,22 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1435,17 +1472,17 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1454,19 +1491,22 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1494,11 +1534,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1524,8 +1564,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1554,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1572,19 +1615,22 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1604,11 +1650,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,8 +1667,8 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1750,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1722,20 +1774,20 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1749,19 +1801,22 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1781,20 +1836,20 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1808,19 +1863,22 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2103,19 +2173,22 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2135,20 +2208,20 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2162,19 +2235,22 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2308,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2253,20 +2332,20 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2280,83 +2359,89 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2543,11 +2636,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2566,8 +2659,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2720,11 +2822,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2917,14 +3028,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3192,11 +3318,11 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3219,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3297,17 +3428,17 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3321,19 +3452,22 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3359,7 +3493,7 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3368,7 +3502,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3380,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3471,13 +3611,13 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3489,7 +3629,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3498,19 +3638,22 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3612,14 +3758,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>300</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3825,13 +3983,13 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3843,7 +4001,7 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3852,19 +4010,22 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>800</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4146,7 +4320,7 @@
         <v>-800</v>
       </c>
       <c r="J72" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
@@ -4158,7 +4332,7 @@
         <v>-500</v>
       </c>
       <c r="N72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
@@ -4170,19 +4344,22 @@
         <v>-400</v>
       </c>
       <c r="R72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-700</v>
       </c>
       <c r="U72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4370,22 +4556,22 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
       </c>
       <c r="I76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -4397,7 +4583,7 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -4406,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-600</v>
       </c>
       <c r="T76" s="3">
         <v>-600</v>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4665,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4561,20 +4756,20 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4588,19 +4783,22 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4988,23 +5205,23 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5021,11 +5238,11 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5246,21 +5476,21 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5271,11 +5501,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5564,24 +5810,24 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5589,20 +5835,20 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BENH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>BENH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,82 +680,97 @@
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +831,20 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +905,20 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +979,20 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +1015,12 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1081,20 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1155,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1229,20 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,23 +1273,23 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1212,8 +1303,20 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1336,12 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1266,37 +1373,49 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-300</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1328,37 +1447,49 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1512,12 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,19 +1567,31 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1475,38 +1622,50 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1537,8 +1696,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1549,8 +1708,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1567,8 +1726,20 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1600,37 +1771,49 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1653,34 +1836,34 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1691,8 +1874,20 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1948,20 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1777,46 +1984,58 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1839,46 +2058,58 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2170,20 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2244,20 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2318,20 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2392,20 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2176,19 +2455,31 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2211,46 +2502,58 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2614,20 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2335,113 +2650,137 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2803,12 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2831,12 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2550,8 +2897,20 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2971,20 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2639,20 +3010,20 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2662,20 +3033,32 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +3119,20 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +3193,20 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2825,20 +3232,20 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +3267,20 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3341,20 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3415,20 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3031,23 +3474,35 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="Y49" s="3">
         <v>200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Z49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3563,20 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3637,20 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3711,20 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3785,20 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3321,20 +3824,20 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3348,16 +3851,28 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3895,12 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3923,12 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3431,16 +3954,16 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3449,25 +3972,37 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3496,40 +4031,52 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3590,8 +4137,20 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3614,46 +4173,58 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +4285,20 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3761,23 +4344,35 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="Y62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Z62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4433,20 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4507,20 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4581,20 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3986,46 +4617,58 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
+        <v>500</v>
+      </c>
+      <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4691,12 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4757,20 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4831,20 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4905,20 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,19 +4979,31 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G72" s="3">
         <v>-800</v>
@@ -4323,43 +5018,55 @@
         <v>-800</v>
       </c>
       <c r="K72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="Y72" s="3">
         <v>-700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Z72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +5127,20 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +5201,20 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +5275,20 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +5302,7 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
@@ -4568,46 +5311,58 @@
         <v>-500</v>
       </c>
       <c r="J76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="Y76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Z76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +5423,99 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4759,46 +5538,58 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5612,12 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5678,20 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5752,20 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5826,20 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5900,20 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5974,20 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +6048,20 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5208,32 +6075,32 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5241,22 +6108,34 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +6158,12 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +6224,20 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +6298,20 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,19 +6372,31 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5489,35 +6408,35 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5527,8 +6446,20 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6482,12 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6548,20 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6622,20 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6696,20 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6770,20 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5813,11 +6796,11 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5825,44 +6808,56 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6918,20 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6990,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
